--- a/src/main/resources/distribution_tests.xlsx
+++ b/src/main/resources/distribution_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D. K. Enzlin\eclipse-workspace\BaThesis\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72AA907-02D5-4B33-B112-AF2EB98F279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0C5DBA-7780-4736-AA87-B2ADF4C38CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{364ECBF0-8150-4858-9368-8238BEAD42E7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>All</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>40/90%</t>
+  </si>
+  <si>
+    <t>33/90%</t>
   </si>
 </sst>
 </file>
@@ -3323,8 +3329,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3338,7 +3394,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3353,7 +3409,456 @@
           <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$V$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$74:$V$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0584-4E96-AF6D-C4A6D476B654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$V$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$75:$V$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.1966666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.201666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.608333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0584-4E96-AF6D-C4A6D476B654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1489654544"/>
+        <c:axId val="1489652144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1489654544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489652144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1489652144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1489654544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3631,6 +4136,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6147,6 +6692,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6862,6 +7910,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296956</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>10084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83405226-32EF-6A96-7F98-8E3D428A0885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7169,8 +8253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0EDFC-53FC-4115-9428-9494F871A78A}">
   <dimension ref="A1:AQ149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8500,6 +9584,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000</v>
@@ -8901,43 +9990,43 @@
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f xml:space="preserve"> AVERAGE(N49:N53)</f>
+        <f t="shared" ref="C50:L50" si="3" xml:space="preserve"> AVERAGE(N49:N53)</f>
         <v>92.183999999999997</v>
       </c>
       <c r="D50">
-        <f xml:space="preserve"> AVERAGE(O49:O53)</f>
+        <f t="shared" si="3"/>
         <v>6.6440000000000001</v>
       </c>
       <c r="E50">
-        <f xml:space="preserve"> AVERAGE(P49:P53)</f>
+        <f t="shared" si="3"/>
         <v>1.048</v>
       </c>
       <c r="F50">
-        <f xml:space="preserve"> AVERAGE(Q49:Q53)</f>
+        <f t="shared" si="3"/>
         <v>0.122</v>
       </c>
       <c r="G50">
-        <f xml:space="preserve"> AVERAGE(R49:R53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f xml:space="preserve"> AVERAGE(S49:S53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f xml:space="preserve"> AVERAGE(T49:T53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f xml:space="preserve"> AVERAGE(U49:U53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f xml:space="preserve"> AVERAGE(V49:V53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f xml:space="preserve"> AVERAGE(W49:W53)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N50">
@@ -9203,79 +10292,79 @@
         <v>2.6160000000000001</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:V57" si="3" xml:space="preserve"> AVERAGE(Y56:Y60)</f>
+        <f t="shared" ref="D57:V57" si="4" xml:space="preserve"> AVERAGE(Y56:Y60)</f>
         <v>16.344000000000001</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.956</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.642000000000003</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.02</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.23</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9359999999999999</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5459999999999994</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.874</v>
       </c>
       <c r="L57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.222</v>
       </c>
       <c r="N57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X57">
@@ -9525,6 +10614,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>500</v>
@@ -9774,83 +10868,83 @@
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f t="shared" ref="C64:V64" si="4" xml:space="preserve"> AVERAGE(X62:X66)</f>
+        <f t="shared" ref="C64:V64" si="5" xml:space="preserve"> AVERAGE(X62:X66)</f>
         <v>4.38</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.392000000000003</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.11</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.992000000000001</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.470000000000002</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5880000000000001</v>
       </c>
       <c r="I64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.61</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6080000000000001</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
       <c r="L64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24000000000000005</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="O64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X64">
@@ -10170,83 +11264,83 @@
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C69">
-        <f t="shared" ref="C69:V69" si="5" xml:space="preserve"> AVERAGE(X68:X70)</f>
+        <f t="shared" ref="C69:V69" si="6" xml:space="preserve"> AVERAGE(X68:X70)</f>
         <v>2.4933333333333336</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.37</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.563333333333333</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.320000000000004</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.923333333333336</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.236666666666666</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.543333333333333</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.99</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1733333333333331</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="M69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.55666666666666664</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X69">
@@ -10376,11 +11470,524 @@
       <c r="A73" t="s">
         <v>13</v>
       </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1000</v>
       </c>
+      <c r="C74">
+        <v>0.01</v>
+      </c>
+      <c r="D74">
+        <v>0.46</v>
+      </c>
+      <c r="E74">
+        <v>2.84</v>
+      </c>
+      <c r="F74">
+        <v>7.47</v>
+      </c>
+      <c r="G74">
+        <v>13.71</v>
+      </c>
+      <c r="H74">
+        <v>17.47</v>
+      </c>
+      <c r="I74">
+        <v>14.4</v>
+      </c>
+      <c r="J74">
+        <v>11.08</v>
+      </c>
+      <c r="K74">
+        <v>11.75</v>
+      </c>
+      <c r="L74">
+        <v>12.16</v>
+      </c>
+      <c r="M74">
+        <v>5.41</v>
+      </c>
+      <c r="N74">
+        <v>2.13</v>
+      </c>
+      <c r="O74">
+        <v>0.73</v>
+      </c>
+      <c r="P74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q74">
+        <v>0.06</v>
+      </c>
+      <c r="R74">
+        <v>0.01</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Y74">
+        <v>21.08</v>
+      </c>
+      <c r="Z74">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>22.16</v>
+      </c>
+      <c r="AB74">
+        <v>16.27</v>
+      </c>
+      <c r="AC74">
+        <v>5.64</v>
+      </c>
+      <c r="AD74">
+        <v>5.98</v>
+      </c>
+      <c r="AE74">
+        <v>1.91</v>
+      </c>
+      <c r="AF74">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AG74">
+        <v>0.41</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0.17</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f>AVERAGE(X74:X79)</f>
+        <v>5.1966666666666663</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:V75" si="7">AVERAGE(Y74:Y79)</f>
+        <v>21.814999999999998</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>19.201666666666668</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>21.608333333333331</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>16.794999999999998</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>6.6366666666666667</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>5.03</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>5.07</v>
+      </c>
+      <c r="Y75">
+        <v>23.71</v>
+      </c>
+      <c r="Z75">
+        <v>17.89</v>
+      </c>
+      <c r="AA75">
+        <v>20.97</v>
+      </c>
+      <c r="AB75">
+        <v>15.39</v>
+      </c>
+      <c r="AC75">
+        <v>7.49</v>
+      </c>
+      <c r="AD75">
+        <v>5.07</v>
+      </c>
+      <c r="AE75">
+        <v>2.83</v>
+      </c>
+      <c r="AF75">
+        <v>1.08</v>
+      </c>
+      <c r="AG75">
+        <v>0.33</v>
+      </c>
+      <c r="AH75">
+        <v>0.17</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X76">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Y76">
+        <v>21.1</v>
+      </c>
+      <c r="Z76">
+        <v>19.52</v>
+      </c>
+      <c r="AA76">
+        <v>23.67</v>
+      </c>
+      <c r="AB76">
+        <v>16.11</v>
+      </c>
+      <c r="AC76">
+        <v>6.73</v>
+      </c>
+      <c r="AD76">
+        <v>4.82</v>
+      </c>
+      <c r="AE76">
+        <v>1.66</v>
+      </c>
+      <c r="AF76">
+        <v>1.41</v>
+      </c>
+      <c r="AG76">
+        <v>0.25</v>
+      </c>
+      <c r="AH76">
+        <v>0.08</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X77">
+        <v>5.09</v>
+      </c>
+      <c r="Y77">
+        <v>22.19</v>
+      </c>
+      <c r="Z77">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>21.43</v>
+      </c>
+      <c r="AB77">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AC77">
+        <v>6.42</v>
+      </c>
+      <c r="AD77">
+        <v>4.25</v>
+      </c>
+      <c r="AE77">
+        <v>2.09</v>
+      </c>
+      <c r="AF77">
+        <v>1.33</v>
+      </c>
+      <c r="AG77">
+        <v>0.42</v>
+      </c>
+      <c r="AH77">
+        <v>0.17</v>
+      </c>
+      <c r="AI77">
+        <v>0.17</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X78">
+        <v>5.89</v>
+      </c>
+      <c r="Y78">
+        <v>20.48</v>
+      </c>
+      <c r="Z78">
+        <v>18.91</v>
+      </c>
+      <c r="AA78">
+        <v>20.81</v>
+      </c>
+      <c r="AB78">
+        <v>19.07</v>
+      </c>
+      <c r="AC78">
+        <v>6.97</v>
+      </c>
+      <c r="AD78">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AE78">
+        <v>1.66</v>
+      </c>
+      <c r="AF78">
+        <v>1.24</v>
+      </c>
+      <c r="AG78">
+        <v>0.66</v>
+      </c>
+      <c r="AH78">
+        <v>0.08</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X79">
+        <v>5.42</v>
+      </c>
+      <c r="Y79">
+        <v>22.33</v>
+      </c>
+      <c r="Z79">
+        <v>19.62</v>
+      </c>
+      <c r="AA79">
+        <v>20.61</v>
+      </c>
+      <c r="AB79">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="AC79">
+        <v>6.57</v>
+      </c>
+      <c r="AD79">
+        <v>5.83</v>
+      </c>
+      <c r="AE79">
+        <v>1.64</v>
+      </c>
+      <c r="AF79">
+        <v>1.07</v>
+      </c>
+      <c r="AG79">
+        <v>0.25</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0.08</v>
+      </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -10511,34 +12118,7 @@
         <v>1000</v>
       </c>
       <c r="C148">
-        <v>414</v>
-      </c>
-      <c r="D148">
-        <v>421</v>
-      </c>
-      <c r="E148">
-        <v>433</v>
-      </c>
-      <c r="F148">
-        <v>479</v>
-      </c>
-      <c r="G148">
-        <v>474</v>
-      </c>
-      <c r="H148">
-        <v>476</v>
-      </c>
-      <c r="I148">
-        <v>444</v>
-      </c>
-      <c r="J148">
-        <v>475</v>
-      </c>
-      <c r="K148">
-        <v>433</v>
-      </c>
-      <c r="L148">
-        <v>517</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
